--- a/BDD/BDD_ScenarioPositif.xlsx
+++ b/BDD/BDD_ScenarioPositif.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moi\Documents\GitHub\WDPII\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Documents\GitHub\WDPII\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4A7A0B-E50A-4B8B-83D5-6F6AB6865CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -63,11 +50,17 @@
   <si>
     <t>+ 1.662 x - 46.8 x + 1430</t>
   </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,50 +123,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Quartier mal fréquenté"/>
-      <sheetName val="Quartier aisé"/>
-      <sheetName val="Chantier"/>
-      <sheetName val="Déménagement"/>
-      <sheetName val="Espace verts"/>
-      <sheetName val="Discothèque"/>
-      <sheetName val="Festival"/>
-      <sheetName val="Groupe scolaire"/>
-      <sheetName val="Groupe scolaire + espace vert"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Nocivité</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,16 +421,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H106"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,11 +446,15 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44927</v>
       </c>
@@ -517,11 +470,15 @@
       <c r="E2" s="1">
         <v>1430</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="1">
+        <v>45.662897999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.17</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44934</v>
       </c>
@@ -541,7 +498,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44941</v>
       </c>
@@ -561,7 +518,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44948</v>
       </c>
@@ -581,7 +538,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44955</v>
       </c>
@@ -601,7 +558,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44962</v>
       </c>
@@ -621,7 +578,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44969</v>
       </c>
@@ -641,7 +598,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44976</v>
       </c>
@@ -663,7 +620,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44983</v>
       </c>
@@ -685,7 +642,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44990</v>
       </c>
@@ -707,7 +664,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44997</v>
       </c>
@@ -729,7 +686,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45004</v>
       </c>
@@ -749,7 +706,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45011</v>
       </c>
@@ -769,7 +726,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45018</v>
       </c>
@@ -789,7 +746,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45025</v>
       </c>
@@ -809,7 +766,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45032</v>
       </c>
@@ -829,7 +786,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45039</v>
       </c>
@@ -849,7 +806,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45046</v>
       </c>
@@ -869,7 +826,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45053</v>
       </c>
@@ -889,7 +846,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45060</v>
       </c>
@@ -909,7 +866,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45067</v>
       </c>
@@ -929,7 +886,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45074</v>
       </c>
@@ -949,7 +906,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>45081</v>
       </c>
@@ -969,7 +926,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>45088</v>
       </c>
@@ -989,7 +946,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>45095</v>
       </c>
@@ -1009,7 +966,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>45102</v>
       </c>
@@ -1029,7 +986,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>45109</v>
       </c>
@@ -1049,7 +1006,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45116</v>
       </c>
@@ -1069,7 +1026,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45123</v>
       </c>
@@ -1089,7 +1046,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>45130</v>
       </c>
@@ -1109,7 +1066,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>45137</v>
       </c>
@@ -1129,7 +1086,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>45144</v>
       </c>
@@ -1149,7 +1106,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>45151</v>
       </c>
@@ -1169,7 +1126,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>45158</v>
       </c>
@@ -1189,7 +1146,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>45165</v>
       </c>
@@ -1209,7 +1166,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>45172</v>
       </c>
@@ -1229,7 +1186,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>45179</v>
       </c>
@@ -1249,7 +1206,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>45186</v>
       </c>
@@ -1269,7 +1226,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>45193</v>
       </c>
@@ -1289,7 +1246,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>45200</v>
       </c>
@@ -1309,7 +1266,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>45207</v>
       </c>
@@ -1329,7 +1286,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>45214</v>
       </c>
@@ -1349,7 +1306,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>45221</v>
       </c>
@@ -1369,7 +1326,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>45228</v>
       </c>
@@ -1389,7 +1346,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45235</v>
       </c>
@@ -1409,7 +1366,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45242</v>
       </c>
@@ -1429,7 +1386,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>45249</v>
       </c>
@@ -1449,7 +1406,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>45256</v>
       </c>
@@ -1469,7 +1426,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>45263</v>
       </c>
@@ -1489,7 +1446,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>45270</v>
       </c>
@@ -1509,7 +1466,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>45277</v>
       </c>
@@ -1529,7 +1486,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>45284</v>
       </c>
@@ -1549,7 +1506,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>45291</v>
       </c>
@@ -1569,7 +1526,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>45298</v>
       </c>
@@ -1589,7 +1546,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>45305</v>
       </c>
@@ -1609,7 +1566,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>45312</v>
       </c>
@@ -1629,7 +1586,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>45319</v>
       </c>
@@ -1649,7 +1606,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>45326</v>
       </c>
@@ -1669,7 +1626,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>45333</v>
       </c>
@@ -1689,7 +1646,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>45340</v>
       </c>
@@ -1709,7 +1666,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>45347</v>
       </c>
@@ -1729,7 +1686,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>45354</v>
       </c>
@@ -1749,7 +1706,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>45361</v>
       </c>
@@ -1769,7 +1726,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>45368</v>
       </c>
@@ -1789,7 +1746,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>45375</v>
       </c>
@@ -1809,7 +1766,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>45382</v>
       </c>
@@ -1829,7 +1786,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>45389</v>
       </c>
@@ -1849,7 +1806,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>45396</v>
       </c>
@@ -1869,7 +1826,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>45403</v>
       </c>
@@ -1889,7 +1846,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>45410</v>
       </c>
@@ -1909,7 +1866,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>45417</v>
       </c>
@@ -1929,7 +1886,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>45424</v>
       </c>
@@ -1949,7 +1906,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>45431</v>
       </c>
@@ -1969,7 +1926,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>45438</v>
       </c>
@@ -1989,7 +1946,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>45445</v>
       </c>
@@ -2009,7 +1966,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>45452</v>
       </c>
@@ -2029,7 +1986,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>45459</v>
       </c>
@@ -2049,7 +2006,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>45466</v>
       </c>
@@ -2069,7 +2026,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>45473</v>
       </c>
@@ -2089,7 +2046,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>45480</v>
       </c>
@@ -2109,7 +2066,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>45487</v>
       </c>
@@ -2129,7 +2086,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>45494</v>
       </c>
@@ -2149,7 +2106,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>45501</v>
       </c>
@@ -2169,7 +2126,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>45508</v>
       </c>
@@ -2189,7 +2146,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>45515</v>
       </c>
@@ -2209,7 +2166,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>45522</v>
       </c>
@@ -2229,7 +2186,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>45529</v>
       </c>
@@ -2249,7 +2206,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>45536</v>
       </c>
@@ -2269,7 +2226,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>45543</v>
       </c>
@@ -2289,7 +2246,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>45550</v>
       </c>
@@ -2309,7 +2266,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>45557</v>
       </c>
@@ -2329,7 +2286,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>45564</v>
       </c>
@@ -2349,7 +2306,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>45571</v>
       </c>
@@ -2369,7 +2326,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>45578</v>
       </c>
@@ -2389,7 +2346,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>45585</v>
       </c>
@@ -2409,7 +2366,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45592</v>
       </c>
@@ -2429,7 +2386,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>45599</v>
       </c>
@@ -2449,7 +2406,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>45606</v>
       </c>
@@ -2469,7 +2426,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>45613</v>
       </c>
@@ -2489,7 +2446,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>45620</v>
       </c>
@@ -2509,7 +2466,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>45627</v>
       </c>
@@ -2529,7 +2486,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>45634</v>
       </c>
@@ -2549,7 +2506,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>45641</v>
       </c>
@@ -2569,7 +2526,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>45648</v>
       </c>
@@ -2589,7 +2546,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>45655</v>
       </c>
